--- a/AI3.xlsx
+++ b/AI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58298\Documents\GitHub\texaspoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21AF908-87F8-4543-A141-2F40490FAE74}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB25F03-BFEF-47FA-9B4E-1FE346D3660E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2775,15 +2775,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>214311</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
